--- a/_Lang_Korean/Lang/KR/Game/List.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/_Lang_Korean/Lang/KR/Game/List.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/List.xlsx
@@ -280,7 +280,7 @@
     <t xml:space="preserve">music</t>
   </si>
   <si>
-    <t xml:space="preserve">땡그랑♪, 짤랑짤랑♪, 짜랑♪, 철컹철컹♪, 따르르♪</t>
+    <t xml:space="preserve">따라란♪, 뜬뜬♪, 도로롱, 쿵짝쿵짝♪, 빠라밤♪</t>
   </si>
   <si>
     <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
@@ -802,7 +802,7 @@
     <t xml:space="preserve">wTrain</t>
   </si>
   <si>
-    <t xml:space="preserve">훈련할 기술 선택,,,기술 목록,  플래티넘 코인 비용</t>
+    <t xml:space="preserve">훈련할 기술 선택,,,기술 목록, 플래티넘 코인 비용</t>
   </si>
   <si>
     <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
@@ -1408,17 +1408,17 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_Lang_Korean/Lang/KR/Game/List.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA81DF4-7619-4400-B260-6266F8FD3230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2406993-9C3E-4015-A066-3A0728550E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,9 +1021,6 @@
     <t>…,우미먀,오늘은 못자겠네,흑흑</t>
   </si>
   <si>
-    <t>천적,싫어함,냉랭,보통,호감,프렌들리,신뢰,친밀,짝사랑,*Love*</t>
-  </si>
-  <si>
     <t>얼룩덜룩 액체,흐린 액체,투명한 액체,탁한 액체,옅은 액체,끈적이는 액체,거품이 이는 액체</t>
   </si>
   <si>
@@ -1306,6 +1303,10 @@
   </si>
   <si>
     <t xml:space="preserve">만저서 ,닿아서 ,접촉으로 ,맞닿아서 ,-손- </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천적,싫어함,냉랭,보통,호감,프렌들리,신뢰,친밀,짝사랑,*Love*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,7 +1361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1678,8 +1679,8 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1882,7 +1883,7 @@
         <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -1902,7 +1903,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1922,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1942,7 +1943,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -1962,7 +1963,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -1982,7 +1983,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2002,7 +2003,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -2022,7 +2023,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2042,7 +2043,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -2062,7 +2063,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -2082,7 +2083,7 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -2102,7 +2103,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -2122,7 +2123,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -2142,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -2162,13 +2163,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,7 +2183,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s">
         <v>80</v>
@@ -2202,7 +2203,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
@@ -2222,7 +2223,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
@@ -2242,7 +2243,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E31" t="s">
         <v>89</v>
@@ -2262,7 +2263,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E32" t="s">
         <v>92</v>
@@ -2282,7 +2283,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
@@ -2302,7 +2303,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E34" t="s">
         <v>98</v>
@@ -2322,7 +2323,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E35" t="s">
         <v>101</v>
@@ -2342,7 +2343,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E36" t="s">
         <v>104</v>
@@ -2362,7 +2363,7 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E37" t="s">
         <v>107</v>
@@ -2379,7 +2380,7 @@
         <v>307</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E38" t="s">
         <v>110</v>
@@ -2396,7 +2397,7 @@
         <v>306</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
@@ -2413,7 +2414,7 @@
         <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E40" t="s">
         <v>116</v>
@@ -2430,7 +2431,7 @@
         <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E41" t="s">
         <v>119</v>
@@ -2447,7 +2448,7 @@
         <v>307</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E42" t="s">
         <v>122</v>
@@ -2464,7 +2465,7 @@
         <v>307</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E43" t="s">
         <v>125</v>
@@ -2481,7 +2482,7 @@
         <v>307</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E44" t="s">
         <v>128</v>
@@ -2498,7 +2499,7 @@
         <v>307</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E45" t="s">
         <v>131</v>
@@ -2515,7 +2516,7 @@
         <v>307</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E46" t="s">
         <v>134</v>
@@ -2532,7 +2533,7 @@
         <v>313</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E47" t="s">
         <v>137</v>
@@ -2549,7 +2550,7 @@
         <v>313</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E48" t="s">
         <v>140</v>
@@ -2566,7 +2567,7 @@
         <v>314</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
@@ -2583,7 +2584,7 @@
         <v>315</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" t="s">
         <v>146</v>
@@ -2600,7 +2601,7 @@
         <v>315</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E51" t="s">
         <v>149</v>
@@ -2617,7 +2618,7 @@
         <v>316</v>
       </c>
       <c r="D52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E52" t="s">
         <v>152</v>
@@ -2634,7 +2635,7 @@
         <v>307</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
@@ -2654,7 +2655,7 @@
         <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E54" t="s">
         <v>159</v>
@@ -2674,7 +2675,7 @@
         <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E55" t="s">
         <v>162</v>
@@ -2694,7 +2695,7 @@
         <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E56" t="s">
         <v>165</v>
@@ -2714,7 +2715,7 @@
         <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57" t="s">
         <v>168</v>
@@ -2734,7 +2735,7 @@
         <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E58" t="s">
         <v>171</v>
@@ -2754,7 +2755,7 @@
         <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -2774,7 +2775,7 @@
         <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -2794,7 +2795,7 @@
         <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -2814,7 +2815,7 @@
         <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -2834,7 +2835,7 @@
         <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -2854,7 +2855,7 @@
         <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -2874,7 +2875,7 @@
         <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -2894,7 +2895,7 @@
         <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -2914,7 +2915,7 @@
         <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -2934,7 +2935,7 @@
         <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -2954,7 +2955,7 @@
         <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -2974,7 +2975,7 @@
         <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E70" t="s">
         <v>207</v>
@@ -2994,7 +2995,7 @@
         <v>158</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -3014,7 +3015,7 @@
         <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -3034,7 +3035,7 @@
         <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -3051,7 +3052,7 @@
         <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -3068,7 +3069,7 @@
         <v>308</v>
       </c>
       <c r="D75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -3085,7 +3086,7 @@
         <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -3102,7 +3103,7 @@
         <v>309</v>
       </c>
       <c r="D77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -3119,7 +3120,7 @@
         <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -3136,7 +3137,7 @@
         <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -3153,7 +3154,7 @@
         <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -3170,7 +3171,7 @@
         <v>316</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -3187,7 +3188,7 @@
         <v>316</v>
       </c>
       <c r="D82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -3204,7 +3205,7 @@
         <v>316</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -3221,7 +3222,7 @@
         <v>316</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -3238,7 +3239,7 @@
         <v>316</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -3255,7 +3256,7 @@
         <v>316</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -3272,7 +3273,7 @@
         <v>316</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -3289,7 +3290,7 @@
         <v>316</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3306,7 +3307,7 @@
         <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -3323,7 +3324,7 @@
         <v>316</v>
       </c>
       <c r="D90" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -3340,7 +3341,7 @@
         <v>310</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -3357,7 +3358,7 @@
         <v>310</v>
       </c>
       <c r="D92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -3374,7 +3375,7 @@
         <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -3391,7 +3392,7 @@
         <v>319</v>
       </c>
       <c r="D94" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -3408,7 +3409,7 @@
         <v>322</v>
       </c>
       <c r="D95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -3425,7 +3426,7 @@
         <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -3442,7 +3443,7 @@
         <v>318</v>
       </c>
       <c r="D97" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -3462,7 +3463,7 @@
         <v>291</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E98" t="s">
         <v>292</v>
@@ -3479,7 +3480,7 @@
         <v>315</v>
       </c>
       <c r="D99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E99" t="s">
         <v>295</v>
@@ -3496,7 +3497,7 @@
         <v>315</v>
       </c>
       <c r="D100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
         <v>298</v>
@@ -3513,7 +3514,7 @@
         <v>315</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -3530,7 +3531,7 @@
         <v>323</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>

--- a/_Lang_Korean/Lang/KR/Game/List.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/List.xlsx
@@ -1258,7 +1258,7 @@
     <t xml:space="preserve">plant_size</t>
   </si>
   <si>
-    <t xml:space="preserve">초미니, 작음, 적당함, 약간 큼, 꽤 거대함,괴물 크기,인류보다 큼,전설적인 크기, 코끼리보다 무거움</t>
+    <t xml:space="preserve">초미니 사이즈의,조그마한 크기의,적당하게 자란,튼실하게 자란,큼직하게자란,꽤 거대하게 자란,괴물 사이즈로 자란,사람보다 거대하게 자란,전설적인 사이즈로 자란,코끼리보다 무겁게 자란</t>
   </si>
   <si>
     <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
@@ -1301,7 +1301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1325,6 +1325,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1376,13 +1383,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1406,15 +1417,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="16"/>
   </cols>
@@ -3220,7 +3231,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>410</v>
       </c>
@@ -3271,6 +3282,12 @@
         <v>422</v>
       </c>
     </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A2:F2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/_Lang_Korean/Lang/KR/Game/List.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/List.xlsx
@@ -643,7 +643,7 @@
     <t xml:space="preserve">qClient</t>
   </si>
   <si>
-    <t xml:space="preserve">아는 사람,어딘가의 부자,귀족,상인,학자,모험자,암상인,판매원</t>
+    <t xml:space="preserve">아는 사람,어딘가의 부자,귀족,상인,학자,모험가,암상인,판매원</t>
   </si>
   <si>
     <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
@@ -1420,12 +1420,12 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
+      <selection pane="bottomLeft" activeCell="H117" activeCellId="0" sqref="H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2578125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="16"/>
   </cols>
